--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW2.xlsx
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="D94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="G94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="K94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
       <c r="L94" t="n">
-        <v>1.7085526307500003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="D107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="G107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="I107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="L107" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="D159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="E159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="I159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="J159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="K159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
       <c r="L159" t="n">
-        <v>4.5400618428165</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>3.4938750009074995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="C260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="D260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="E260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="F260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="G260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="I260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="J260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="K260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
       <c r="L260" t="n">
-        <v>1.9057500004949999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>6.4275749968815</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -12225,37 +12225,37 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="C320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="D320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="E320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="F320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="G320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="H320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="I320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="J320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="K320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
       <c r="L320" t="n">
-        <v>0.716707894518</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="321">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>3.831300001386</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12605,37 +12605,37 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="C330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="D330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="E330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="F330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="G330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="H330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="I330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="J330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="K330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
       <c r="L330" t="n">
-        <v>4.9235999981520004</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="331">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="E331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="I331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="J331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="K331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
       <c r="L331" t="n">
-        <v>4.3081499983830005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.299475000033</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>3.6300000003999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>10.127830264744501</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>4.1908263164460005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="C429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="D429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="E429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="F429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="G429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="H429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="I429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="J429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="K429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
       <c r="L429" t="n">
-        <v>11.612699995247999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="430">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="C475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="D475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="E475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="F475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="G475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="H475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="I475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="J475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="K475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
       <c r="L475" t="n">
-        <v>2.4063513154065</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="476">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>9.317202628734002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="D505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="E505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="H505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="I505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="K505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
       <c r="L505" t="n">
-        <v>0.3143250000165</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="C520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="D520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="E520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="G520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="H520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="I520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="J520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="K520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
       <c r="L520" t="n">
-        <v>0.9528750002474999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="521">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.8934749999999999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6.8752894725900005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
